--- a/main/all-profiles.xlsx
+++ b/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="399">
   <si>
     <t>Property</t>
   </si>
@@ -24,19 +24,19 @@
     <t>ID</t>
   </si>
   <si>
-    <t>MyPatient</t>
+    <t>MeinPatientenProfil</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://gefyra.info/training/StructureDefinition/MyPatient</t>
+    <t>http://gefyra.info/simone/StructureDefinition/MeinPatientenProfil</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T13:05:27+00:00</t>
+    <t>2026-02-10T08:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>An example profile of the Patient resource.</t>
+    <t>Die ist ein Patienten-Profil mit den Minimalanforderungen für Patientenstammdaten.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -549,13 +549,13 @@
 </t>
   </si>
   <si>
-    <t>The date of birth for the individual</t>
+    <t>Geburtsdatum</t>
   </si>
   <si>
     <t>The date of birth for the individual.</t>
   </si>
   <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
+    <t>Ist ein Pflichtfeld weil...</t>
   </si>
   <si>
     <t>Age of the individual drives many clinical processes.</t>
@@ -597,6 +597,260 @@
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.extension:planet</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://gefyra.info/simone/StructureDefinition/MeinePlanetExtension}
+</t>
+  </si>
+  <si>
+    <t>Dies ist eine Extension, um Angaben zum Planeten an eine Adresse hinzuzufügen</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -691,26 +945,10 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -814,10 +1052,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -969,6 +1203,70 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+  </si>
+  <si>
+    <t>MeinePlanetExtension</t>
+  </si>
+  <si>
+    <t>http://gefyra.info/simone/StructureDefinition/MeinePlanetExtension</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>MyPatient</t>
+  </si>
+  <si>
+    <t>http://gefyra.info/simone/StructureDefinition/MyPatient</t>
+  </si>
+  <si>
+    <t>An example profile of the Patient resource.</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual</t>
+  </si>
+  <si>
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1272,6 +1570,334 @@
         <v>36</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1279,7 +1905,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1288,7 +1914,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.92578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.26171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="33.83984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1308,7 +1934,7 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="34.26953125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -1317,7 +1943,7 @@
     <col min="27" max="27" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2611,13 +3237,13 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>20</v>
@@ -2932,13 +3558,13 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>20</v>
@@ -3146,13 +3772,13 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>20</v>
@@ -3277,9 +3903,7 @@
         <v>189</v>
       </c>
       <c r="O19" s="2"/>
-      <c r="P19" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3303,13 +3927,13 @@
         <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>20</v>
@@ -3327,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -3339,7 +3963,7 @@
         <v>20</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3971,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3358,10 +3982,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>20</v>
@@ -3373,20 +3997,16 @@
         <v>20</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>20</v>
       </c>
@@ -3422,31 +4042,31 @@
         <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -3454,24 +4074,26 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="E21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>20</v>
@@ -3480,20 +4102,16 @@
         <v>20</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>20</v>
       </c>
@@ -3541,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -3553,7 +4171,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -3561,10 +4179,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3575,31 +4193,31 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>20</v>
@@ -3612,7 +4230,7 @@
         <v>20</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="V22" t="s" s="2">
         <v>20</v>
@@ -3624,13 +4242,13 @@
         <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>20</v>
@@ -3648,19 +4266,19 @@
         <v>20</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -3668,10 +4286,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3691,18 +4309,20 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
         <v>20</v>
@@ -3715,7 +4335,7 @@
         <v>20</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="V23" t="s" s="2">
         <v>20</v>
@@ -3727,13 +4347,13 @@
         <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>20</v>
@@ -3751,7 +4371,7 @@
         <v>20</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -3763,7 +4383,7 @@
         <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -3771,21 +4391,21 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -3794,21 +4414,23 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P24" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="Q24" t="s" s="2">
         <v>20</v>
       </c>
@@ -3820,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="V24" t="s" s="2">
         <v>20</v>
@@ -3856,19 +4478,19 @@
         <v>20</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -3876,46 +4498,42 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>20</v>
       </c>
@@ -3927,7 +4545,7 @@
         <v>20</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="V25" t="s" s="2">
         <v>20</v>
@@ -3963,7 +4581,7 @@
         <v>20</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -3975,7 +4593,7 @@
         <v>20</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -3983,44 +4601,42 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>187</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O26" s="2"/>
-      <c r="P26" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4032,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="V26" t="s" s="2">
         <v>20</v>
@@ -4044,13 +4660,13 @@
         <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>20</v>
@@ -4068,13 +4684,13 @@
         <v>20</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>20</v>
@@ -4088,14 +4704,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -4111,21 +4727,21 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4137,7 +4753,7 @@
         <v>20</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="V27" t="s" s="2">
         <v>20</v>
@@ -4173,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4193,21 +4809,21 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
@@ -4216,23 +4832,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4280,13 +4892,13 @@
         <v>20</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>20</v>
@@ -4300,44 +4912,42 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>20</v>
       </c>
@@ -4349,7 +4959,7 @@
         <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="V29" t="s" s="2">
         <v>20</v>
@@ -4385,7 +4995,7 @@
         <v>20</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4405,10 +5015,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4428,21 +5038,21 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>20</v>
       </c>
@@ -4466,13 +5076,13 @@
         <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>20</v>
@@ -4490,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4510,10 +5120,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4533,20 +5143,20 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>20</v>
@@ -4559,7 +5169,7 @@
         <v>20</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="V31" t="s" s="2">
         <v>20</v>
@@ -4595,7 +5205,7 @@
         <v>20</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4604,7 +5214,7 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>93</v>
@@ -4615,10 +5225,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4641,16 +5251,18 @@
         <v>20</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="Q32" t="s" s="2">
         <v>20</v>
       </c>
@@ -4674,13 +5286,13 @@
         <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>20</v>
@@ -4698,7 +5310,7 @@
         <v>20</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4718,10 +5330,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4732,7 +5344,7 @@
         <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
@@ -4744,19 +5356,19 @@
         <v>20</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>20</v>
@@ -4805,13 +5417,13 @@
         <v>20</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>20</v>
@@ -4825,10 +5437,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4839,7 +5451,7 @@
         <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
@@ -4851,16 +5463,20 @@
         <v>20</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="Q34" t="s" s="2">
         <v>20</v>
       </c>
@@ -4908,19 +5524,19 @@
         <v>20</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -4928,14 +5544,14 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
@@ -4954,18 +5570,20 @@
         <v>20</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P35" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="Q35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5013,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5025,7 +5643,7 @@
         <v>20</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
@@ -5033,46 +5651,42 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5120,19 +5734,19 @@
         <v>20</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -5140,21 +5754,21 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
@@ -5166,20 +5780,18 @@
         <v>20</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="P37" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5203,13 +5815,13 @@
         <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>20</v>
@@ -5227,19 +5839,19 @@
         <v>20</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -5247,45 +5859,45 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>20</v>
@@ -5334,19 +5946,19 @@
         <v>20</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -5354,14 +5966,14 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
@@ -5380,18 +5992,18 @@
         <v>20</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="P39" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="Q39" t="s" s="2">
         <v>20</v>
       </c>
@@ -5415,13 +6027,13 @@
         <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>20</v>
@@ -5439,7 +6051,7 @@
         <v>20</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -5459,10 +6071,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5482,22 +6094,20 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>20</v>
@@ -5546,7 +6156,7 @@
         <v>20</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -5566,10 +6176,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5586,25 +6196,25 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="Q41" t="s" s="2">
         <v>20</v>
@@ -5653,7 +6263,7 @@
         <v>20</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -5673,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5699,16 +6309,18 @@
         <v>20</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>20</v>
       </c>
@@ -5756,7 +6368,7 @@
         <v>20</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -5768,7 +6380,7 @@
         <v>20</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
@@ -5776,21 +6388,21 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
@@ -5802,18 +6414,18 @@
         <v>20</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P43" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Q43" t="s" s="2">
         <v>20</v>
       </c>
@@ -5837,13 +6449,13 @@
         <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>20</v>
@@ -5861,19 +6473,19 @@
         <v>20</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
@@ -5881,45 +6493,43 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>20</v>
@@ -5968,19 +6578,19 @@
         <v>20</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>225</v>
+        <v>323</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -5988,10 +6598,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5999,7 +6609,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6011,20 +6621,18 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>20</v>
@@ -6073,10 +6681,10 @@
         <v>20</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -6093,10 +6701,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6104,10 +6712,10 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -6116,19 +6724,23 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>101</v>
+        <v>288</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>20</v>
       </c>
@@ -6152,42 +6764,6683 @@
         <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Q51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Q53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="S71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="Q74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Q75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Q76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R76" s="2"/>
+      <c r="S76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Q77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R77" s="2"/>
+      <c r="S77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Q78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R78" s="2"/>
+      <c r="S78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R79" s="2"/>
+      <c r="S79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Q80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R80" s="2"/>
+      <c r="S80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Q81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R81" s="2"/>
+      <c r="S81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Q82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R82" s="2"/>
+      <c r="S82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Q83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R83" s="2"/>
+      <c r="S83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Q84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R84" s="2"/>
+      <c r="S84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R86" s="2"/>
+      <c r="S86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R88" s="2"/>
+      <c r="S88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG88" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AA46" t="s" s="2">
+      <c r="AH88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AB46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG46" t="s" s="2">
+      <c r="C89" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Q89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R89" s="2"/>
+      <c r="S89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Q90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R90" s="2"/>
+      <c r="S90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Q91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R91" s="2"/>
+      <c r="S91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Q92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Q93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Q94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R95" s="2"/>
+      <c r="S95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Q96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R97" s="2"/>
+      <c r="S97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AH46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="N99" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Q100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Q101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R101" s="2"/>
+      <c r="S101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Q103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Q104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK109" t="s" s="2">
         <v>93</v>
       </c>
     </row>

--- a/main/all-profiles.xlsx
+++ b/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T08:26:21+00:00</t>
+    <t>2026-02-10T10:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -399,38 +399,62 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:spezies</t>
+  </si>
+  <si>
+    <t>spezies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://gefyra.info/simone/StructureDefinition/MeineSpeziesExtension}
+</t>
+  </si>
+  <si>
+    <t>Erweiterung zur Angabe der Spezies eines Patienten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -480,6 +504,9 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Patient.name</t>
   </si>
   <si>
@@ -618,20 +645,10 @@
     <t>Patient.address.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
+    <t>2</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -648,6 +665,19 @@
   </si>
   <si>
     <t>Dies ist eine Extension, um Angaben zum Planeten an eine Adresse hinzuzufügen</t>
+  </si>
+  <si>
+    <t>Patient.address.extension:quadrant</t>
+  </si>
+  <si>
+    <t>quadrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://gefyra.info/simone/StructureDefinition/MeineQuadrantenExtension}
+</t>
+  </si>
+  <si>
+    <t>Extension zur Angabe des Quadranten an einer Adresse</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -948,6 +978,9 @@
     <t>Patient.contact.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1223,10 +1256,6 @@
     <t>element:Element</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -1254,6 +1283,27 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t>MeineQuadrantenExtension</t>
+  </si>
+  <si>
+    <t>http://gefyra.info/simone/StructureDefinition/MeineQuadrantenExtension</t>
+  </si>
+  <si>
+    <t>element:Address</t>
+  </si>
+  <si>
+    <t>http://gefyra.info/simone/ValueSet/MeinQuadrantenValueSet</t>
+  </si>
+  <si>
+    <t>MeineSpeziesExtension</t>
+  </si>
+  <si>
+    <t>http://gefyra.info/simone/StructureDefinition/MeineSpeziesExtension</t>
+  </si>
+  <si>
+    <t>http://fhir.ufp/ValueSet/species</t>
+  </si>
+  <si>
     <t>MyPatient</t>
   </si>
   <si>
@@ -1261,6 +1311,9 @@
   </si>
   <si>
     <t>An example profile of the Patient resource.</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>The date of birth for the individual</t>
@@ -1400,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1583,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24">
@@ -1591,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25">
@@ -1607,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27">
@@ -1667,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
@@ -1695,7 +1748,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39">
@@ -1703,7 +1756,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>192</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
@@ -1711,7 +1764,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41">
@@ -1732,10 +1785,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44">
@@ -1751,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
@@ -1759,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47">
@@ -1775,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49">
@@ -1835,7 +1888,7 @@
         <v>21</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57">
@@ -1863,7 +1916,7 @@
         <v>27</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>28</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
@@ -1871,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
@@ -1879,7 +1932,7 @@
         <v>31</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>32</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63">
@@ -1895,6 +1948,342 @@
         <v>35</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -1905,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK109"/>
+  <dimension ref="A1:AK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1914,7 +2303,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="33.83984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1940,7 +2329,7 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.35546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="48.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="48.6875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2807,11 +3196,11 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -2826,17 +3215,15 @@
         <v>20</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
         <v>20</v>
@@ -2873,16 +3260,14 @@
         <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AD9" s="2"/>
       <c r="AE9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>129</v>
@@ -2908,43 +3293,41 @@
         <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="E10" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P10" t="s" s="2">
         <v>134</v>
       </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
         <v>20</v>
       </c>
@@ -2992,7 +3375,7 @@
         <v>20</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
@@ -3001,7 +3384,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>130</v>
@@ -3019,7 +3402,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
@@ -3032,13 +3415,13 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>138</v>
@@ -3046,9 +3429,11 @@
       <c r="N11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>20</v>
@@ -3097,7 +3482,7 @@
         <v>20</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
@@ -3109,7 +3494,7 @@
         <v>20</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -3117,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3131,88 +3516,84 @@
         <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>20</v>
@@ -3237,16 +3618,16 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>82</v>
@@ -3269,9 +3650,11 @@
       <c r="Q13" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="S13" t="s" s="2">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>20</v>
@@ -3319,7 +3702,7 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>20</v>
@@ -3333,10 +3716,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3359,19 +3742,19 @@
         <v>82</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>20</v>
@@ -3420,7 +3803,7 @@
         <v>20</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -3440,10 +3823,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3454,7 +3837,7 @@
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>
@@ -3466,19 +3849,19 @@
         <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="s" s="2">
         <v>20</v>
@@ -3503,13 +3886,13 @@
         <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>20</v>
@@ -3527,13 +3910,13 @@
         <v>20</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>20</v>
@@ -3558,13 +3941,13 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>20</v>
@@ -3573,19 +3956,19 @@
         <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="O16" t="s" s="2">
+      <c r="P16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>20</v>
@@ -3610,13 +3993,13 @@
         <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>20</v>
@@ -3654,10 +4037,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3671,28 +4054,28 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>20</v>
@@ -3741,7 +4124,7 @@
         <v>20</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
@@ -3761,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3772,34 +4155,34 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q18" t="s" s="2">
         <v>20</v>
@@ -3848,13 +4231,13 @@
         <v>20</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>20</v>
@@ -3868,10 +4251,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3882,28 +4265,32 @@
         <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Q19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3951,19 +4338,19 @@
         <v>20</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -3971,10 +4358,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3982,10 +4369,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>20</v>
@@ -3997,13 +4384,13 @@
         <v>20</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4042,31 +4429,31 @@
         <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -4074,26 +4461,24 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="D21" t="s" s="2">
         <v>199</v>
       </c>
+      <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>20</v>
@@ -4102,13 +4487,13 @@
         <v>20</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4147,19 +4532,19 @@
         <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -4179,46 +4564,44 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="E22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="P22" t="s" s="2">
         <v>206</v>
       </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4230,7 +4613,7 @@
         <v>20</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s" s="2">
         <v>20</v>
@@ -4242,13 +4625,13 @@
         <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>20</v>
@@ -4266,19 +4649,19 @@
         <v>20</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -4286,43 +4669,43 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="E23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
         <v>20</v>
@@ -4335,7 +4718,7 @@
         <v>20</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="V23" t="s" s="2">
         <v>20</v>
@@ -4347,13 +4730,13 @@
         <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>20</v>
@@ -4371,19 +4754,19 @@
         <v>20</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -4391,10 +4774,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4411,25 +4794,25 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q24" t="s" s="2">
         <v>20</v>
@@ -4442,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="V24" t="s" s="2">
         <v>20</v>
@@ -4454,13 +4837,13 @@
         <v>20</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>20</v>
@@ -4478,7 +4861,7 @@
         <v>20</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -4498,10 +4881,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4509,13 +4892,13 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>20</v>
@@ -4524,15 +4907,17 @@
         <v>82</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>20</v>
@@ -4545,7 +4930,7 @@
         <v>20</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="V25" t="s" s="2">
         <v>20</v>
@@ -4557,13 +4942,13 @@
         <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>20</v>
@@ -4581,13 +4966,13 @@
         <v>20</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>20</v>
@@ -4601,14 +4986,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -4618,7 +5003,7 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>20</v>
@@ -4627,16 +5012,20 @@
         <v>82</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="Q26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4648,7 +5037,7 @@
         <v>20</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V26" t="s" s="2">
         <v>20</v>
@@ -4684,7 +5073,7 @@
         <v>20</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4704,24 +5093,24 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>20</v>
@@ -4730,17 +5119,15 @@
         <v>82</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>20</v>
@@ -4753,7 +5140,7 @@
         <v>20</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="V27" t="s" s="2">
         <v>20</v>
@@ -4789,13 +5176,13 @@
         <v>20</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>20</v>
@@ -4809,14 +5196,14 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
@@ -4826,7 +5213,7 @@
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>20</v>
@@ -4835,13 +5222,13 @@
         <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4856,7 +5243,7 @@
         <v>20</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="V28" t="s" s="2">
         <v>20</v>
@@ -4892,7 +5279,7 @@
         <v>20</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4912,24 +5299,24 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>20</v>
@@ -4938,15 +5325,17 @@
         <v>82</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>20</v>
@@ -4959,7 +5348,7 @@
         <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V29" t="s" s="2">
         <v>20</v>
@@ -4995,7 +5384,7 @@
         <v>20</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -5015,14 +5404,14 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
@@ -5041,17 +5430,15 @@
         <v>82</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>20</v>
@@ -5100,7 +5487,7 @@
         <v>20</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -5120,24 +5507,24 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>20</v>
@@ -5146,18 +5533,16 @@
         <v>82</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5169,7 +5554,7 @@
         <v>20</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V31" t="s" s="2">
         <v>20</v>
@@ -5205,7 +5590,7 @@
         <v>20</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -5225,10 +5610,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5248,21 +5633,21 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5286,13 +5671,13 @@
         <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>20</v>
@@ -5310,7 +5695,7 @@
         <v>20</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -5330,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5353,22 +5738,20 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>20</v>
@@ -5381,7 +5764,7 @@
         <v>20</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="V33" t="s" s="2">
         <v>20</v>
@@ -5437,10 +5820,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5451,7 +5834,7 @@
         <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
@@ -5463,19 +5846,17 @@
         <v>20</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>20</v>
@@ -5500,13 +5881,13 @@
         <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>20</v>
@@ -5524,13 +5905,13 @@
         <v>20</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>20</v>
@@ -5544,10 +5925,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5558,7 +5939,7 @@
         <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
@@ -5570,19 +5951,19 @@
         <v>20</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="P35" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="Q35" t="s" s="2">
         <v>20</v>
@@ -5631,19 +6012,19 @@
         <v>20</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -5651,10 +6032,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5665,7 +6046,7 @@
         <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
@@ -5677,16 +6058,20 @@
         <v>20</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="Q36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5734,19 +6119,19 @@
         <v>20</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -5754,14 +6139,14 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
@@ -5780,18 +6165,20 @@
         <v>20</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P37" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="Q37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5839,7 +6226,7 @@
         <v>20</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -5851,7 +6238,7 @@
         <v>20</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>130</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
@@ -5859,46 +6246,42 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>20</v>
       </c>
@@ -5946,19 +6329,19 @@
         <v>20</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -5966,14 +6349,14 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
@@ -5992,18 +6375,18 @@
         <v>20</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6027,13 +6410,13 @@
         <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>20</v>
@@ -6051,7 +6434,7 @@
         <v>20</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -6063,7 +6446,7 @@
         <v>20</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -6071,33 +6454,33 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>309</v>
@@ -6105,9 +6488,11 @@
       <c r="N40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>20</v>
@@ -6156,19 +6541,19 @@
         <v>20</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
@@ -6202,7 +6587,7 @@
         <v>20</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>313</v>
@@ -6210,11 +6595,9 @@
       <c r="N41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="O41" t="s" s="2">
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="Q41" t="s" s="2">
         <v>20</v>
@@ -6239,13 +6622,13 @@
         <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AB41" t="s" s="2">
         <v>20</v>
@@ -6283,10 +6666,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6309,17 +6692,17 @@
         <v>20</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q42" t="s" s="2">
         <v>20</v>
@@ -6368,7 +6751,7 @@
         <v>20</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -6388,10 +6771,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6402,7 +6785,7 @@
         <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
@@ -6414,17 +6797,19 @@
         <v>20</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>20</v>
@@ -6449,13 +6834,13 @@
         <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
         <v>20</v>
@@ -6473,13 +6858,13 @@
         <v>20</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>20</v>
@@ -6493,10 +6878,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6519,17 +6904,17 @@
         <v>20</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>20</v>
@@ -6578,7 +6963,7 @@
         <v>20</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -6587,7 +6972,7 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>93</v>
@@ -6598,10 +6983,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6624,16 +7009,18 @@
         <v>20</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>330</v>
+        <v>169</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>331</v>
       </c>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6657,13 +7044,13 @@
         <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>20</v>
@@ -6681,7 +7068,7 @@
         <v>20</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
@@ -6701,10 +7088,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6715,7 +7102,7 @@
         <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -6727,19 +7114,17 @@
         <v>20</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>20</v>
@@ -6788,16 +7173,16 @@
         <v>20</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>93</v>
@@ -6808,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6834,13 +7219,13 @@
         <v>20</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>189</v>
+        <v>341</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -6891,7 +7276,7 @@
         <v>20</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>190</v>
+        <v>339</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
@@ -6903,7 +7288,7 @@
         <v>20</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
@@ -6911,14 +7296,14 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
@@ -6937,18 +7322,20 @@
         <v>20</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>126</v>
+        <v>343</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P48" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="Q48" t="s" s="2">
         <v>20</v>
       </c>
@@ -6996,7 +7383,7 @@
         <v>20</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
@@ -7008,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
@@ -7016,46 +7403,42 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7103,19 +7486,19 @@
         <v>20</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -7123,21 +7506,21 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>20</v>
@@ -7149,20 +7532,18 @@
         <v>20</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7186,13 +7567,13 @@
         <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>20</v>
@@ -7210,19 +7591,19 @@
         <v>20</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -7230,45 +7611,45 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>348</v>
+        <v>140</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>349</v>
+        <v>141</v>
       </c>
       <c r="Q51" t="s" s="2">
         <v>20</v>
@@ -7317,19 +7698,19 @@
         <v>20</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -7344,14 +7725,14 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
@@ -7363,18 +7744,20 @@
         <v>20</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="P52" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="O52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7398,13 +7781,13 @@
         <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="AB52" t="s" s="2">
         <v>20</v>
@@ -7425,10 +7808,10 @@
         <v>350</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>20</v>
@@ -7442,10 +7825,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7465,22 +7848,22 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="M53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="O53" t="s" s="2">
+      <c r="P53" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>20</v>
@@ -7529,7 +7912,7 @@
         <v>20</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
@@ -7549,14 +7932,14 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s" s="2">
@@ -7569,26 +7952,24 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="P54" t="s" s="2">
         <v>365</v>
       </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>20</v>
       </c>
@@ -7636,7 +8017,7 @@
         <v>20</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
@@ -7679,19 +8060,23 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>188</v>
+        <v>367</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>20</v>
       </c>
@@ -7739,7 +8124,7 @@
         <v>20</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>190</v>
+        <v>366</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
@@ -7751,7 +8136,7 @@
         <v>20</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
@@ -7759,14 +8144,14 @@
         <v>3</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
@@ -7779,24 +8164,26 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P56" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>20</v>
       </c>
@@ -7844,7 +8231,7 @@
         <v>20</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -7856,7 +8243,7 @@
         <v>20</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
@@ -7864,46 +8251,42 @@
         <v>3</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>20</v>
       </c>
@@ -7951,19 +8334,19 @@
         <v>20</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -7971,21 +8354,21 @@
         <v>3</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>20</v>
@@ -7994,19 +8377,19 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
@@ -8056,19 +8439,19 @@
         <v>20</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -8076,42 +8459,46 @@
         <v>3</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8135,13 +8522,13 @@
         <v>20</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>20</v>
@@ -8159,30 +8546,30 @@
         <v>20</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8190,10 +8577,10 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>20</v>
@@ -8202,18 +8589,20 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>192</v>
+        <v>381</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>20</v>
@@ -8262,30 +8651,30 @@
         <v>20</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8293,7 +8682,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -8305,16 +8694,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>188</v>
+        <v>385</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>189</v>
+        <v>386</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -8341,13 +8730,13 @@
         <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AB61" t="s" s="2">
         <v>20</v>
@@ -8365,10 +8754,10 @@
         <v>20</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -8377,18 +8766,18 @@
         <v>20</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8399,7 +8788,7 @@
         <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>20</v>
@@ -8411,13 +8800,13 @@
         <v>20</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8456,19 +8845,19 @@
         <v>20</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
@@ -8477,7 +8866,7 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>130</v>
@@ -8485,13 +8874,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8499,7 +8888,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -8514,24 +8903,22 @@
         <v>20</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>388</v>
+        <v>196</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="R63" s="2"/>
       <c r="S63" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>20</v>
@@ -8573,10 +8960,10 @@
         <v>20</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -8590,13 +8977,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8607,7 +8994,7 @@
         <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>20</v>
@@ -8619,13 +9006,13 @@
         <v>20</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>392</v>
+        <v>125</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>393</v>
+        <v>126</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -8664,53 +9051,53 @@
         <v>20</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>391</v>
+        <v>202</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>30</v>
+        <v>396</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>30</v>
+        <v>396</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>20</v>
@@ -8722,22 +9109,24 @@
         <v>20</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>20</v>
@@ -8779,30 +9168,30 @@
         <v>20</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>30</v>
+        <v>396</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8822,20 +9211,18 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>84</v>
+        <v>401</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
         <v>20</v>
@@ -8884,7 +9271,7 @@
         <v>20</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>400</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>74</v>
@@ -8896,18 +9283,18 @@
         <v>20</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8918,7 +9305,7 @@
         <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>20</v>
@@ -8927,16 +9314,16 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -8987,30 +9374,30 @@
         <v>20</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="C68" t="s" s="2">
-        <v>94</v>
+        <v>394</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9027,23 +9414,21 @@
         <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>20</v>
@@ -9092,7 +9477,7 @@
         <v>20</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
@@ -9104,18 +9489,18 @@
         <v>20</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9126,7 +9511,7 @@
         <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>20</v>
@@ -9138,17 +9523,15 @@
         <v>20</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>20</v>
@@ -9173,62 +9556,62 @@
         <v>20</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="AB69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>109</v>
+        <v>396</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>109</v>
+        <v>396</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -9243,16 +9626,16 @@
         <v>20</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>112</v>
+        <v>397</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>113</v>
+        <v>398</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>114</v>
+        <v>399</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9260,7 +9643,7 @@
       </c>
       <c r="R70" s="2"/>
       <c r="S70" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>20</v>
@@ -9302,10 +9685,10 @@
         <v>20</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
@@ -9314,29 +9697,29 @@
         <v>20</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>20</v>
@@ -9348,17 +9731,15 @@
         <v>20</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>119</v>
+        <v>401</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>20</v>
@@ -9383,13 +9764,11 @@
         <v>20</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Z71" s="2"/>
       <c r="AA71" t="s" s="2">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>20</v>
@@ -9407,34 +9786,34 @@
         <v>20</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>122</v>
+        <v>400</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" t="s" s="2">
@@ -9453,17 +9832,15 @@
         <v>20</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
         <v>20</v>
@@ -9512,7 +9889,7 @@
         <v>20</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
@@ -9521,7 +9898,7 @@
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>130</v>
@@ -9529,49 +9906,45 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="C73" t="s" s="2">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>20</v>
       </c>
@@ -9619,30 +9992,30 @@
         <v>20</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>136</v>
+        <v>395</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>136</v>
+        <v>395</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9653,7 +10026,7 @@
         <v>74</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>20</v>
@@ -9662,21 +10035,19 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>20</v>
       </c>
@@ -9712,19 +10083,19 @@
         <v>20</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
@@ -9736,18 +10107,18 @@
         <v>20</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9755,7 +10126,7 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -9764,34 +10135,30 @@
         <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>143</v>
+        <v>397</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>144</v>
+        <v>398</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="R75" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="R75" s="2"/>
       <c r="S75" t="s" s="2">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>20</v>
@@ -9833,10 +10200,10 @@
         <v>20</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
@@ -9845,18 +10212,18 @@
         <v>20</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9864,35 +10231,31 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>20</v>
       </c>
@@ -9916,13 +10279,11 @@
         <v>20</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Z76" s="2"/>
       <c r="AA76" t="s" s="2">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>20</v>
@@ -9940,13 +10301,13 @@
         <v>20</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>20</v>
@@ -9957,17 +10318,17 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
@@ -9983,23 +10344,19 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>20</v>
       </c>
@@ -10047,7 +10404,7 @@
         <v>20</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
@@ -10059,18 +10416,18 @@
         <v>20</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10093,20 +10450,18 @@
         <v>82</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>20</v>
       </c>
@@ -10130,13 +10485,13 @@
         <v>20</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>20</v>
@@ -10154,7 +10509,7 @@
         <v>20</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>74</v>
@@ -10166,18 +10521,18 @@
         <v>20</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10200,20 +10555,16 @@
         <v>82</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>397</v>
+        <v>90</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
         <v>20</v>
       </c>
@@ -10261,7 +10612,7 @@
         <v>20</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
@@ -10278,13 +10629,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10307,20 +10658,18 @@
         <v>82</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>20</v>
       </c>
@@ -10368,7 +10717,7 @@
         <v>20</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>74</v>
@@ -10385,13 +10734,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10402,7 +10751,7 @@
         <v>74</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>20</v>
@@ -10411,23 +10760,21 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>20</v>
       </c>
@@ -10451,13 +10798,13 @@
         <v>20</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>20</v>
@@ -10475,13 +10822,13 @@
         <v>20</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>20</v>
@@ -10492,17 +10839,17 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>267</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>267</v>
+        <v>109</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
@@ -10521,18 +10868,18 @@
         <v>20</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>20</v>
       </c>
@@ -10556,13 +10903,13 @@
         <v>20</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="AB82" t="s" s="2">
         <v>20</v>
@@ -10580,7 +10927,7 @@
         <v>20</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>267</v>
+        <v>115</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>74</v>
@@ -10597,24 +10944,24 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>20</v>
@@ -10626,20 +10973,18 @@
         <v>20</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>278</v>
+        <v>120</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>20</v>
       </c>
@@ -10687,34 +11032,34 @@
         <v>20</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>275</v>
+        <v>122</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
@@ -10733,20 +11078,18 @@
         <v>20</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>282</v>
+        <v>124</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>284</v>
+        <v>413</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
         <v>20</v>
       </c>
@@ -10794,7 +11137,7 @@
         <v>20</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
@@ -10806,22 +11149,22 @@
         <v>20</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
@@ -10834,25 +11177,25 @@
         <v>20</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>292</v>
+        <v>141</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>20</v>
@@ -10901,7 +11244,7 @@
         <v>20</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>74</v>
@@ -10913,18 +11256,18 @@
         <v>20</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>293</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10935,7 +11278,7 @@
         <v>74</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>20</v>
@@ -10944,19 +11287,21 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>20</v>
       </c>
@@ -11004,68 +11349,72 @@
         <v>20</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>296</v>
+        <v>151</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P87" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="R87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="S87" t="s" s="2">
         <v>20</v>
       </c>
@@ -11109,65 +11458,65 @@
         <v>20</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>297</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>297</v>
+        <v>156</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="P88" t="s" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>20</v>
@@ -11216,7 +11565,7 @@
         <v>20</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>74</v>
@@ -11228,18 +11577,18 @@
         <v>20</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11259,20 +11608,22 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P89" t="s" s="2">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="Q89" t="s" s="2">
         <v>20</v>
@@ -11297,13 +11648,13 @@
         <v>20</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>20</v>
@@ -11321,7 +11672,7 @@
         <v>20</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>74</v>
@@ -11338,13 +11689,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11364,20 +11715,22 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P90" t="s" s="2">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="Q90" t="s" s="2">
         <v>20</v>
@@ -11402,13 +11755,13 @@
         <v>20</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="AB90" t="s" s="2">
         <v>20</v>
@@ -11426,7 +11779,7 @@
         <v>20</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>74</v>
@@ -11443,13 +11796,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11460,7 +11813,7 @@
         <v>74</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>20</v>
@@ -11469,22 +11822,22 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="P91" t="s" s="2">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>20</v>
@@ -11533,13 +11886,13 @@
         <v>20</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>20</v>
@@ -11550,13 +11903,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11573,23 +11926,25 @@
         <v>20</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P92" t="s" s="2">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>20</v>
@@ -11638,7 +11993,7 @@
         <v>20</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>74</v>
@@ -11655,13 +12010,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11672,7 +12027,7 @@
         <v>74</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>20</v>
@@ -11681,20 +12036,22 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P93" t="s" s="2">
-        <v>322</v>
+        <v>193</v>
       </c>
       <c r="Q93" t="s" s="2">
         <v>20</v>
@@ -11719,13 +12076,13 @@
         <v>20</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>20</v>
@@ -11743,13 +12100,13 @@
         <v>20</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>20</v>
@@ -11760,13 +12117,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11789,17 +12146,17 @@
         <v>20</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>20</v>
@@ -11824,13 +12181,13 @@
         <v>20</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>20</v>
@@ -11848,7 +12205,7 @@
         <v>20</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>74</v>
@@ -11857,7 +12214,7 @@
         <v>81</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>93</v>
@@ -11865,13 +12222,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -11894,16 +12251,20 @@
         <v>20</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="Q95" t="s" s="2">
         <v>20</v>
       </c>
@@ -11951,7 +12312,7 @@
         <v>20</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>74</v>
@@ -11968,13 +12329,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11997,19 +12358,19 @@
         <v>20</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="P96" t="s" s="2">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>20</v>
@@ -12058,7 +12419,7 @@
         <v>20</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>74</v>
@@ -12075,13 +12436,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12092,7 +12453,7 @@
         <v>74</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>20</v>
@@ -12104,16 +12465,20 @@
         <v>20</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="Q97" t="s" s="2">
         <v>20</v>
       </c>
@@ -12161,41 +12526,41 @@
         <v>20</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>20</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>20</v>
@@ -12207,17 +12572,15 @@
         <v>20</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>20</v>
@@ -12266,34 +12629,34 @@
         <v>20</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12306,26 +12669,24 @@
         <v>20</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>20</v>
       </c>
@@ -12373,7 +12734,7 @@
         <v>20</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>74</v>
@@ -12390,48 +12751,48 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>343</v>
+        <v>140</v>
       </c>
       <c r="P100" t="s" s="2">
-        <v>344</v>
+        <v>141</v>
       </c>
       <c r="Q100" t="s" s="2">
         <v>20</v>
@@ -12456,13 +12817,13 @@
         <v>20</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="AB100" t="s" s="2">
         <v>20</v>
@@ -12480,30 +12841,30 @@
         <v>20</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12514,7 +12875,7 @@
         <v>74</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>20</v>
@@ -12526,19 +12887,17 @@
         <v>20</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>20</v>
@@ -12563,13 +12922,13 @@
         <v>20</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>20</v>
@@ -12587,13 +12946,13 @@
         <v>20</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>20</v>
@@ -12604,24 +12963,24 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>20</v>
@@ -12633,18 +12992,18 @@
         <v>20</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>352</v>
+        <v>157</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="P102" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="Q102" t="s" s="2">
         <v>20</v>
       </c>
@@ -12692,13 +13051,13 @@
         <v>20</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>20</v>
@@ -12709,13 +13068,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12726,7 +13085,7 @@
         <v>74</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>20</v>
@@ -12735,22 +13094,22 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="O103" t="s" s="2">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="P103" t="s" s="2">
-        <v>360</v>
+        <v>167</v>
       </c>
       <c r="Q103" t="s" s="2">
         <v>20</v>
@@ -12799,13 +13158,13 @@
         <v>20</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>20</v>
@@ -12816,13 +13175,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12833,31 +13192,29 @@
         <v>74</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="Q104" t="s" s="2">
         <v>20</v>
@@ -12906,13 +13263,13 @@
         <v>20</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>20</v>
@@ -12923,13 +13280,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -12952,16 +13309,18 @@
         <v>20</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="Q105" t="s" s="2">
         <v>20</v>
       </c>
@@ -12985,13 +13344,13 @@
         <v>20</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="AB105" t="s" s="2">
         <v>20</v>
@@ -13009,7 +13368,7 @@
         <v>20</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>74</v>
@@ -13021,29 +13380,29 @@
         <v>20</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>20</v>
@@ -13055,18 +13414,18 @@
         <v>20</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>126</v>
+        <v>335</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P106" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="Q106" t="s" s="2">
         <v>20</v>
       </c>
@@ -13114,66 +13473,62 @@
         <v>20</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>20</v>
       </c>
@@ -13221,30 +13576,30 @@
         <v>20</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13252,10 +13607,10 @@
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>20</v>
@@ -13264,21 +13619,23 @@
         <v>20</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="P108" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="Q108" t="s" s="2">
         <v>20</v>
       </c>
@@ -13326,13 +13683,13 @@
         <v>20</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>20</v>
@@ -13343,13 +13700,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13357,7 +13714,7 @@
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>81</v>
@@ -13369,16 +13726,16 @@
         <v>20</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>375</v>
+        <v>196</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>376</v>
+        <v>197</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -13405,42 +13762,1310 @@
         <v>20</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Q112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Q113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Q115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Q116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AA109" t="s" s="2">
+      <c r="C117" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AB109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK109" t="s" s="2">
+      <c r="C118" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Q119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK121" t="s" s="2">
         <v>93</v>
       </c>
     </row>
